--- a/ACS/ACS_var_names_crosswalk.xlsx
+++ b/ACS/ACS_var_names_crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitprod-my.sharepoint.com/personal/kgraham1_mit_edu/Documents/CEEPR/Carbon footprint project/ACS/Data/ACS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="14_{B5EACFA3-9143-4036-B247-2418DAA5A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDFA5E0A-90BD-43F1-AC0B-EA4A514F1BC4}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="14_{B5EACFA3-9143-4036-B247-2418DAA5A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4950696E-2300-41F3-A218-FA2886364F3D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,12 +1025,6 @@
     <t>B06004H_005E</t>
   </si>
   <si>
-    <t>B17025_001E</t>
-  </si>
-  <si>
-    <t>B06012_017E</t>
-  </si>
-  <si>
     <t>B05006_002E</t>
   </si>
   <si>
@@ -1101,6 +1095,12 @@
   </si>
   <si>
     <t>MIG_AFR_W</t>
+  </si>
+  <si>
+    <t>B17025_002E</t>
+  </si>
+  <si>
+    <t>B17025_006E</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1544,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E134" sqref="E134"/>
+      <selection pane="bottomRight" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="B120" t="s">
         <v>328</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="B121" t="s">
         <v>300</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B122" t="s">
         <v>308</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B123" t="s">
         <v>308</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B124" t="s">
         <v>308</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B125" t="s">
         <v>308</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B126" t="s">
         <v>308</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B127" t="s">
         <v>308</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B128" t="s">
         <v>308</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B129" t="s">
         <v>308</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B130" t="s">
         <v>308</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B131" t="s">
         <v>308</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B132" t="s">
         <v>308</v>
@@ -3848,7 +3848,7 @@
         <v>325</v>
       </c>
       <c r="D132" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="10"/>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B133" t="s">
         <v>308</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B134" t="s">
         <v>308</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B135" t="s">
         <v>308</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B136" t="s">
         <v>308</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B137" t="s">
         <v>308</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B138" t="s">
         <v>308</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B139" t="s">
         <v>308</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B140" t="s">
         <v>308</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B141" t="s">
         <v>308</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B142" t="s">
         <v>308</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B143" t="s">
         <v>308</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B144" t="s">
         <v>308</v>
@@ -4078,6 +4078,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="bcb3ac5f-01e2-41ad-b451-1fdd9db804f2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CE6DA3D4640C546B036DF3294D0D54B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="282ec1615c20a500c0d857be433f6d1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcb3ac5f-01e2-41ad-b451-1fdd9db804f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99485cb268d3e24941cb161041edd03b" ns3:_="">
     <xsd:import namespace="bcb3ac5f-01e2-41ad-b451-1fdd9db804f2"/>
@@ -4255,24 +4272,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A04FCFDB-20BE-4275-AA14-307876FAE424}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bcb3ac5f-01e2-41ad-b451-1fdd9db804f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="bcb3ac5f-01e2-41ad-b451-1fdd9db804f2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E82905A-26FB-420F-B416-17254471D37E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2105AC-D9F8-4B59-839A-03356F41721C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4288,28 +4312,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E82905A-26FB-420F-B416-17254471D37E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A04FCFDB-20BE-4275-AA14-307876FAE424}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bcb3ac5f-01e2-41ad-b451-1fdd9db804f2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>